--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hitss\OneDrive - GLOBAL HITSS\Documentos\UiPath\ChallengeFinal_DiegoMarquez\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B8CEA4-9B50-433F-A24A-887D06CCF71D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667133C2-48A2-4AD0-9330-4AB6A4898CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
   <si>
     <t>Name</t>
   </si>
@@ -213,7 +213,13 @@
     <t>Pais_Ejecucion</t>
   </si>
   <si>
-    <t>Argentina</t>
+    <t>Challenge RPA - NI - InOut -</t>
+  </si>
+  <si>
+    <t>Nombre_Excel</t>
+  </si>
+  <si>
+    <t>Mexico</t>
   </si>
 </sst>
 </file>
@@ -733,10 +739,17 @@
         <v>61</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
